--- a/Code/Results/Cases/Case_0_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2431549176109087</v>
+        <v>0.2415770933482833</v>
       </c>
       <c r="D2">
-        <v>0.05523768065987156</v>
+        <v>0.02587126749661905</v>
       </c>
       <c r="E2">
-        <v>0.1542951507858845</v>
+        <v>0.1437606120375037</v>
       </c>
       <c r="F2">
-        <v>0.4293090123494281</v>
+        <v>0.6290542452549559</v>
       </c>
       <c r="G2">
-        <v>0.322418131344989</v>
+        <v>0.4688686173606129</v>
       </c>
       <c r="H2">
-        <v>0.2538327456288272</v>
+        <v>0.6138120906210389</v>
       </c>
       <c r="I2">
-        <v>0.4031200120735363</v>
+        <v>0.6608872145715878</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.093192578894502</v>
+        <v>1.062424887895702</v>
       </c>
       <c r="L2">
-        <v>0.18767974731729</v>
+        <v>0.1671444806557574</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.949019725362092</v>
+        <v>1.056361425878436</v>
       </c>
       <c r="O2">
-        <v>1.165093335738163</v>
+        <v>2.123412239915922</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2167699788040665</v>
+        <v>0.2355361060694605</v>
       </c>
       <c r="D3">
-        <v>0.04910955473070544</v>
+        <v>0.02380182233109451</v>
       </c>
       <c r="E3">
-        <v>0.137267916227934</v>
+        <v>0.1399977085992141</v>
       </c>
       <c r="F3">
-        <v>0.397241724129934</v>
+        <v>0.6268990016914273</v>
       </c>
       <c r="G3">
-        <v>0.2990875728186069</v>
+        <v>0.4682065611508719</v>
       </c>
       <c r="H3">
-        <v>0.2486924088362912</v>
+        <v>0.6174449417600698</v>
       </c>
       <c r="I3">
-        <v>0.3765287163102755</v>
+        <v>0.6601296682002413</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.695603565394947</v>
+        <v>0.9374696694845284</v>
       </c>
       <c r="L3">
-        <v>0.1667063476147206</v>
+        <v>0.1626114239204028</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9212254135320279</v>
+        <v>1.049576209229173</v>
       </c>
       <c r="O3">
-        <v>1.104502152578092</v>
+        <v>2.129334901191299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2007537799891992</v>
+        <v>0.231932996382767</v>
       </c>
       <c r="D4">
-        <v>0.04533493867611327</v>
+        <v>0.02252125527817128</v>
       </c>
       <c r="E4">
-        <v>0.126961978354764</v>
+        <v>0.1377613719837107</v>
       </c>
       <c r="F4">
-        <v>0.378442817409784</v>
+        <v>0.626012177325272</v>
       </c>
       <c r="G4">
-        <v>0.2855873148522576</v>
+        <v>0.4681723109783817</v>
       </c>
       <c r="H4">
-        <v>0.2460563104025368</v>
+        <v>0.6199830171014824</v>
       </c>
       <c r="I4">
-        <v>0.3610215401322918</v>
+        <v>0.6600854742578903</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.451244188021491</v>
+        <v>0.8605628739133522</v>
       </c>
       <c r="L4">
-        <v>0.1540386787568409</v>
+        <v>0.1599234841592363</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9049392353932717</v>
+        <v>1.045776958195177</v>
       </c>
       <c r="O4">
-        <v>1.070126376288584</v>
+        <v>2.134394430886545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1942698495700768</v>
+        <v>0.2304914901315129</v>
       </c>
       <c r="D5">
-        <v>0.04379352851712781</v>
+        <v>0.02199695043540117</v>
       </c>
       <c r="E5">
-        <v>0.122796691523714</v>
+        <v>0.1368687225242802</v>
       </c>
       <c r="F5">
-        <v>0.3709926236530308</v>
+        <v>0.6257604898610651</v>
       </c>
       <c r="G5">
-        <v>0.280280320681328</v>
+        <v>0.4682518077922708</v>
       </c>
       <c r="H5">
-        <v>0.2451070442280994</v>
+        <v>0.6210946380124938</v>
       </c>
       <c r="I5">
-        <v>0.3548965962544131</v>
+        <v>0.6601732802718772</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.351587394984449</v>
+        <v>0.829178909986382</v>
       </c>
       <c r="L5">
-        <v>0.1489250369072295</v>
+        <v>0.1588521325239896</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8984913116306359</v>
+        <v>1.044321434083969</v>
       </c>
       <c r="O5">
-        <v>1.056789350272012</v>
+        <v>2.13681375185385</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1931956829551496</v>
+        <v>0.2302537505712507</v>
       </c>
       <c r="D6">
-        <v>0.04353737753810094</v>
+        <v>0.02190974214516217</v>
       </c>
       <c r="E6">
-        <v>0.122107046611827</v>
+        <v>0.1367216279900489</v>
       </c>
       <c r="F6">
-        <v>0.3697678581913877</v>
+        <v>0.6257253211887388</v>
       </c>
       <c r="G6">
-        <v>0.2794104768527106</v>
+        <v>0.4682706480967695</v>
       </c>
       <c r="H6">
-        <v>0.244956801889515</v>
+        <v>0.6212838930475755</v>
       </c>
       <c r="I6">
-        <v>0.3538909568017559</v>
+        <v>0.6601942503912923</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.335034212817646</v>
+        <v>0.8239650505950067</v>
       </c>
       <c r="L6">
-        <v>0.1480787305492441</v>
+        <v>0.1586756859546981</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8974318403381289</v>
+        <v>1.044085357469228</v>
       </c>
       <c r="O6">
-        <v>1.054614173094947</v>
+        <v>2.137237062852023</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2006661666807901</v>
+        <v>0.231913447099231</v>
       </c>
       <c r="D7">
-        <v>0.04531416401889743</v>
+        <v>0.02251419425312662</v>
       </c>
       <c r="E7">
-        <v>0.1269056680984058</v>
+        <v>0.1377492577264263</v>
       </c>
       <c r="F7">
-        <v>0.3783415064276099</v>
+        <v>0.6260083388890791</v>
       </c>
       <c r="G7">
-        <v>0.2855149721340453</v>
+        <v>0.4681730049113142</v>
       </c>
       <c r="H7">
-        <v>0.2460430097781128</v>
+        <v>0.6199976956676352</v>
       </c>
       <c r="I7">
-        <v>0.360938165304816</v>
+        <v>0.6600862300437171</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.449900522425423</v>
+        <v>0.860139793050962</v>
       </c>
       <c r="L7">
-        <v>0.1539695233934779</v>
+        <v>0.159908938308412</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9048515211233479</v>
+        <v>1.045756952552992</v>
       </c>
       <c r="O7">
-        <v>1.069943841123575</v>
+        <v>2.134425611506302</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2340169588044176</v>
+        <v>0.2394722106394056</v>
       </c>
       <c r="D8">
-        <v>0.05312703514627515</v>
+        <v>0.02515979953057723</v>
       </c>
       <c r="E8">
-        <v>0.1483914320328346</v>
+        <v>0.1424478072267092</v>
       </c>
       <c r="F8">
-        <v>0.4180591060407863</v>
+        <v>0.62822048123288</v>
       </c>
       <c r="G8">
-        <v>0.3141945950209646</v>
+        <v>0.4685629855412898</v>
       </c>
       <c r="H8">
-        <v>0.2519488279880306</v>
+        <v>0.6150008858313214</v>
       </c>
       <c r="I8">
-        <v>0.393773844613726</v>
+        <v>0.6605386233109911</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.95614165094031</v>
+        <v>1.019379870365441</v>
       </c>
       <c r="L8">
-        <v>0.1804018622660095</v>
+        <v>0.1655616993867142</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9392699452350399</v>
+        <v>1.053945991985586</v>
       </c>
       <c r="O8">
-        <v>1.143590241234591</v>
+        <v>2.125158845845561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3010511113479311</v>
+        <v>0.2551325357524945</v>
       </c>
       <c r="D9">
-        <v>0.06836508735356261</v>
+        <v>0.03026798509608852</v>
       </c>
       <c r="E9">
-        <v>0.1918490121604322</v>
+        <v>0.1522483714222602</v>
       </c>
       <c r="F9">
-        <v>0.5036504516464859</v>
+        <v>0.6360259750588071</v>
       </c>
       <c r="G9">
-        <v>0.3775949614094429</v>
+        <v>0.47228911440925</v>
       </c>
       <c r="H9">
-        <v>0.2679333086755094</v>
+        <v>0.6076416555410447</v>
       </c>
       <c r="I9">
-        <v>0.465234969655377</v>
+        <v>0.6647683627657486</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.94793949238624</v>
+        <v>1.330100497428703</v>
       </c>
       <c r="L9">
-        <v>0.2341090791149867</v>
+        <v>0.177403287428362</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.013301462669418</v>
+        <v>1.072898433004099</v>
       </c>
       <c r="O9">
-        <v>1.312329215430026</v>
+        <v>2.118293558126595</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3515533074488815</v>
+        <v>0.2671447448893502</v>
       </c>
       <c r="D10">
-        <v>0.07952822758132072</v>
+        <v>0.03397110810480086</v>
       </c>
       <c r="E10">
-        <v>0.2247975944813092</v>
+        <v>0.1598057945356572</v>
       </c>
       <c r="F10">
-        <v>0.5721730933146603</v>
+        <v>0.6438819065664418</v>
       </c>
       <c r="G10">
-        <v>0.4294452927313728</v>
+        <v>0.4768438791421801</v>
       </c>
       <c r="H10">
-        <v>0.2827680537538697</v>
+        <v>0.6037220689096614</v>
       </c>
       <c r="I10">
-        <v>0.5228794418761709</v>
+        <v>0.6699188443031261</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.677536372135648</v>
+        <v>1.55734304083262</v>
       </c>
       <c r="L10">
-        <v>0.2750172394025441</v>
+        <v>0.1865653653608348</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.072203117242623</v>
+        <v>1.088566395020933</v>
       </c>
       <c r="O10">
-        <v>1.453898647935631</v>
+        <v>2.120168215883922</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3748609493931667</v>
+        <v>0.27271863043552</v>
       </c>
       <c r="D11">
-        <v>0.08460405208938226</v>
+        <v>0.03564469520084401</v>
       </c>
       <c r="E11">
-        <v>0.2400589707680254</v>
+        <v>0.1633212692099946</v>
       </c>
       <c r="F11">
-        <v>0.6047925329682755</v>
+        <v>0.6479180583428032</v>
       </c>
       <c r="G11">
-        <v>0.454391714361563</v>
+        <v>0.4793131463221698</v>
       </c>
       <c r="H11">
-        <v>0.2902841204279696</v>
+        <v>0.6022619391563637</v>
       </c>
       <c r="I11">
-        <v>0.5504166477942221</v>
+        <v>0.6727067252050105</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.010015462516037</v>
+        <v>1.660475090163061</v>
       </c>
       <c r="L11">
-        <v>0.2940152606107347</v>
+        <v>0.1908340136603925</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.100103905272192</v>
+        <v>1.096068707174624</v>
       </c>
       <c r="O11">
-        <v>1.522778564799182</v>
+        <v>2.122529069941692</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3837403138989259</v>
+        <v>0.2748449604692098</v>
       </c>
       <c r="D12">
-        <v>0.08652617023626163</v>
+        <v>0.03627683252943115</v>
       </c>
       <c r="E12">
-        <v>0.2458817689031889</v>
+        <v>0.1646636119605986</v>
       </c>
       <c r="F12">
-        <v>0.6173726201153329</v>
+        <v>0.649513041473007</v>
       </c>
       <c r="G12">
-        <v>0.4640527947227184</v>
+        <v>0.4803055070994304</v>
       </c>
       <c r="H12">
-        <v>0.2932492215782077</v>
+        <v>0.6017554592553722</v>
       </c>
       <c r="I12">
-        <v>0.5610507556914328</v>
+        <v>0.6738264653914996</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.136031980246059</v>
+        <v>1.699491609146435</v>
       </c>
       <c r="L12">
-        <v>0.3012716817069503</v>
+        <v>0.1924649248555426</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.110839366955702</v>
+        <v>1.098963166003983</v>
       </c>
       <c r="O12">
-        <v>1.549564027336146</v>
+        <v>2.123640318703735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3818255274104843</v>
+        <v>0.2743863244575095</v>
       </c>
       <c r="D13">
-        <v>0.08611220123277263</v>
+        <v>0.0361407627690653</v>
       </c>
       <c r="E13">
-        <v>0.2446257105521852</v>
+        <v>0.1643740210845763</v>
       </c>
       <c r="F13">
-        <v>0.6146528156548925</v>
+        <v>0.6491665708888732</v>
       </c>
       <c r="G13">
-        <v>0.4619622572199944</v>
+        <v>0.4800892331309257</v>
       </c>
       <c r="H13">
-        <v>0.2926052024024273</v>
+        <v>0.6018624732659248</v>
       </c>
       <c r="I13">
-        <v>0.5587510433434062</v>
+        <v>0.6735824606996417</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.108886493484704</v>
+        <v>1.691090406000001</v>
       </c>
       <c r="L13">
-        <v>0.2997060049799671</v>
+        <v>0.1921130359300065</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.10851954794154</v>
+        <v>1.098337419726477</v>
       </c>
       <c r="O13">
-        <v>1.543763105552244</v>
+        <v>2.123391323263689</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3755903611721294</v>
+        <v>0.2728932525228345</v>
       </c>
       <c r="D14">
-        <v>0.08476218353180798</v>
+        <v>0.03569673406042284</v>
       </c>
       <c r="E14">
-        <v>0.2405371148223736</v>
+        <v>0.1634314821778915</v>
       </c>
       <c r="F14">
-        <v>0.6058228218638035</v>
+        <v>0.6480479437465334</v>
       </c>
       <c r="G14">
-        <v>0.4551821271967924</v>
+        <v>0.4793936390125708</v>
       </c>
       <c r="H14">
-        <v>0.2905256265854632</v>
+        <v>0.6022193400011986</v>
       </c>
       <c r="I14">
-        <v>0.5512872828384303</v>
+        <v>0.6727975633383636</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.02038045212106</v>
+        <v>1.663685766020365</v>
       </c>
       <c r="L14">
-        <v>0.2946109642998209</v>
+        <v>0.1909678999121809</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.100983644813553</v>
+        <v>1.096305766233726</v>
       </c>
       <c r="O14">
-        <v>1.524967802917757</v>
+        <v>2.122616136937182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.371778240553823</v>
+        <v>0.2719807335053019</v>
       </c>
       <c r="D15">
-        <v>0.08393527133132039</v>
+        <v>0.03542454246683491</v>
       </c>
       <c r="E15">
-        <v>0.238038551821667</v>
+        <v>0.1628555952349018</v>
       </c>
       <c r="F15">
-        <v>0.6004444666637596</v>
+        <v>0.6473714253694638</v>
       </c>
       <c r="G15">
-        <v>0.4510576078311743</v>
+        <v>0.4789750352029642</v>
       </c>
       <c r="H15">
-        <v>0.2892675777832778</v>
+        <v>0.6024439791426346</v>
       </c>
       <c r="I15">
-        <v>0.5467429237039667</v>
+        <v>0.6723251312457776</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.96618372092388</v>
+        <v>1.646894691932175</v>
       </c>
       <c r="L15">
-        <v>0.2914984131102045</v>
+        <v>0.190268354301196</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.096390169069636</v>
+        <v>1.095068274490799</v>
       </c>
       <c r="O15">
-        <v>1.513548364048347</v>
+        <v>2.122169616010837</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3500372582575437</v>
+        <v>0.2667826708391772</v>
       </c>
       <c r="D16">
-        <v>0.07919649272371743</v>
+        <v>0.03386151130834492</v>
       </c>
       <c r="E16">
-        <v>0.2238060886215294</v>
+        <v>0.1595776069671402</v>
       </c>
       <c r="F16">
-        <v>0.5700721205789634</v>
+        <v>0.643627447126029</v>
       </c>
       <c r="G16">
-        <v>0.4278439302624406</v>
+        <v>0.4766905159804367</v>
       </c>
       <c r="H16">
-        <v>0.2822930256920699</v>
+        <v>0.6038239900664735</v>
       </c>
       <c r="I16">
-        <v>0.5211077276856315</v>
+        <v>0.6697456069135086</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.655822316139279</v>
+        <v>1.550598033180052</v>
       </c>
       <c r="L16">
-        <v>0.2737840316055866</v>
+        <v>0.1862884248994305</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.070402915108573</v>
+        <v>1.08808360949223</v>
       </c>
       <c r="O16">
-        <v>1.449492190075546</v>
+        <v>2.120044307755535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3367890205583706</v>
+        <v>0.2636217797604559</v>
       </c>
       <c r="D17">
-        <v>0.07628904648758805</v>
+        <v>0.03289980492747446</v>
       </c>
       <c r="E17">
-        <v>0.2151478682512931</v>
+        <v>0.1575865016945386</v>
       </c>
       <c r="F17">
-        <v>0.5518241014977576</v>
+        <v>0.6414491397896853</v>
       </c>
       <c r="G17">
-        <v>0.4139643528926626</v>
+        <v>0.4753909153034783</v>
       </c>
       <c r="H17">
-        <v>0.2782168814245836</v>
+        <v>0.6047532909669115</v>
       </c>
       <c r="I17">
-        <v>0.5057300123121351</v>
+        <v>0.6682771408512096</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.465595382392678</v>
+        <v>1.491459395584741</v>
       </c>
       <c r="L17">
-        <v>0.2630207934828093</v>
+        <v>0.1838726603692322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.054751465026513</v>
+        <v>1.083894464364704</v>
       </c>
       <c r="O17">
-        <v>1.411383134434232</v>
+        <v>2.119127027463122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3292000817969836</v>
+        <v>0.2618140300439507</v>
       </c>
       <c r="D18">
-        <v>0.07461651715966156</v>
+        <v>0.03234562522722939</v>
       </c>
       <c r="E18">
-        <v>0.2101932944960154</v>
+        <v>0.1564485740966646</v>
       </c>
       <c r="F18">
-        <v>0.5414633845869403</v>
+        <v>0.6402397582156567</v>
       </c>
       <c r="G18">
-        <v>0.4061079395362555</v>
+        <v>0.4746808030938183</v>
       </c>
       <c r="H18">
-        <v>0.2759441035601213</v>
+        <v>0.6053181937419794</v>
       </c>
       <c r="I18">
-        <v>0.4970077741343175</v>
+        <v>0.6674743910402867</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.35623468544776</v>
+        <v>1.457421817618808</v>
       </c>
       <c r="L18">
-        <v>0.2568662411981535</v>
+        <v>0.1824926632321962</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.045852578842229</v>
+        <v>1.081520288267356</v>
       </c>
       <c r="O18">
-        <v>1.389881729334007</v>
+        <v>2.118741355181982</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3266357844466938</v>
+        <v>0.2612037317054501</v>
       </c>
       <c r="D19">
-        <v>0.07405017544595438</v>
+        <v>0.0321578133734377</v>
       </c>
       <c r="E19">
-        <v>0.2085199951296417</v>
+        <v>0.1560645471111926</v>
       </c>
       <c r="F19">
-        <v>0.5379780450613012</v>
+        <v>0.6398377550692942</v>
       </c>
       <c r="G19">
-        <v>0.403469106405268</v>
+        <v>0.4744467866592714</v>
       </c>
       <c r="H19">
-        <v>0.2751866456660537</v>
+        <v>0.6055146800573254</v>
       </c>
       <c r="I19">
-        <v>0.4940751236947989</v>
+        <v>0.6672097838197217</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.319215221538457</v>
+        <v>1.445893476423976</v>
       </c>
       <c r="L19">
-        <v>0.2547884415931208</v>
+        <v>0.1820270500006558</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.042857007685654</v>
+        <v>1.080722510089018</v>
       </c>
       <c r="O19">
-        <v>1.382671794718561</v>
+        <v>2.11863513675948</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3381960627777971</v>
+        <v>0.263957195717694</v>
       </c>
       <c r="D20">
-        <v>0.07659857181104002</v>
+        <v>0.03300228723349363</v>
       </c>
       <c r="E20">
-        <v>0.21606689027562</v>
+        <v>0.1577977026909991</v>
       </c>
       <c r="F20">
-        <v>0.553752518273555</v>
+        <v>0.6416765192493159</v>
       </c>
       <c r="G20">
-        <v>0.4154286060916945</v>
+        <v>0.4755253896716027</v>
       </c>
       <c r="H20">
-        <v>0.2786433119081551</v>
+        <v>0.6046512196479625</v>
       </c>
       <c r="I20">
-        <v>0.5073541839545115</v>
+        <v>0.6684291274742407</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.485839688260114</v>
+        <v>1.497757162083758</v>
       </c>
       <c r="L20">
-        <v>0.2641627694420521</v>
+        <v>0.1841288409623445</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.056406808459968</v>
+        <v>1.08433675462399</v>
       </c>
       <c r="O20">
-        <v>1.415396247711868</v>
+        <v>2.119209982193269</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3774202913890008</v>
+        <v>0.2733313809745255</v>
       </c>
       <c r="D21">
-        <v>0.08515871316172507</v>
+        <v>0.0358272001282316</v>
       </c>
       <c r="E21">
-        <v>0.2417368133311228</v>
+        <v>0.1637080275728238</v>
       </c>
       <c r="F21">
-        <v>0.6084100598716873</v>
+        <v>0.6483747040578223</v>
       </c>
       <c r="G21">
-        <v>0.4571676395251814</v>
+        <v>0.4795963953018116</v>
       </c>
       <c r="H21">
-        <v>0.2911331497706726</v>
+        <v>0.6021132591909151</v>
       </c>
       <c r="I21">
-        <v>0.5534738254485418</v>
+        <v>0.6730263685337761</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.046373476825636</v>
+        <v>1.67173620735241</v>
       </c>
       <c r="L21">
-        <v>0.2961057577589088</v>
+        <v>0.1913038616925888</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.10319241625956</v>
+        <v>1.096901063486399</v>
       </c>
       <c r="O21">
-        <v>1.530468901470471</v>
+        <v>2.122837928929897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4033687701134738</v>
+        <v>0.2795489449918875</v>
       </c>
       <c r="D22">
-        <v>0.09075352137739401</v>
+        <v>0.03766402161954829</v>
       </c>
       <c r="E22">
-        <v>0.2587702641875822</v>
+        <v>0.1676354959853228</v>
       </c>
       <c r="F22">
-        <v>0.6454698267048258</v>
+        <v>0.6531404706999524</v>
       </c>
       <c r="G22">
-        <v>0.4857059810844362</v>
+        <v>0.482591117670907</v>
       </c>
       <c r="H22">
-        <v>0.2999935799907689</v>
+        <v>0.6007252430520964</v>
       </c>
       <c r="I22">
-        <v>0.5848274414350811</v>
+        <v>0.6764041725751042</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.413394535506654</v>
+        <v>1.785222670350606</v>
       </c>
       <c r="L22">
-        <v>0.3173486743485086</v>
+        <v>0.1960774640440519</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.13476626457765</v>
+        <v>1.105424195603263</v>
       </c>
       <c r="O22">
-        <v>1.609797883450824</v>
+        <v>2.126475446602058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3894890932828901</v>
+        <v>0.2762222284175664</v>
       </c>
       <c r="D23">
-        <v>0.08776732024951173</v>
+        <v>0.03668454898418361</v>
       </c>
       <c r="E23">
-        <v>0.249654168993743</v>
+        <v>0.1655334243631472</v>
       </c>
       <c r="F23">
-        <v>0.6255611033084136</v>
+        <v>0.6505613525848446</v>
       </c>
       <c r="G23">
-        <v>0.4703527001953489</v>
+        <v>0.4809621520203962</v>
       </c>
       <c r="H23">
-        <v>0.2951977971365807</v>
+        <v>0.601441283640753</v>
       </c>
       <c r="I23">
-        <v>0.567976508444815</v>
+        <v>0.6745672058365102</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.217435613000248</v>
+        <v>1.724673692658314</v>
       </c>
       <c r="L23">
-        <v>0.3059751806611928</v>
+        <v>0.1935219962755923</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.117819682549566</v>
+        <v>1.100846859437297</v>
       </c>
       <c r="O23">
-        <v>1.567061115477685</v>
+        <v>2.124418028211352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3375598532608137</v>
+        <v>0.2638055245981832</v>
       </c>
       <c r="D24">
-        <v>0.07645863855251633</v>
+        <v>0.03295595897293424</v>
       </c>
       <c r="E24">
-        <v>0.2156513286329016</v>
+        <v>0.1577021975822248</v>
       </c>
       <c r="F24">
-        <v>0.5528802766201295</v>
+        <v>0.6415735871959001</v>
       </c>
       <c r="G24">
-        <v>0.4147662350812595</v>
+        <v>0.475464478428762</v>
       </c>
       <c r="H24">
-        <v>0.2784503032611383</v>
+        <v>0.6046972706638485</v>
       </c>
       <c r="I24">
-        <v>0.5066195277932692</v>
+        <v>0.6683602850847663</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.476687229548759</v>
+        <v>1.49491005997794</v>
       </c>
       <c r="L24">
-        <v>0.2636463786276977</v>
+        <v>0.1840129941233641</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.055658119090353</v>
+        <v>1.084136688575057</v>
       </c>
       <c r="O24">
-        <v>1.413580652715979</v>
+        <v>2.119172037049964</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2827162134775847</v>
+        <v>0.2508067500459674</v>
       </c>
       <c r="D25">
-        <v>0.06424985551500839</v>
+        <v>0.0288947558685777</v>
       </c>
       <c r="E25">
-        <v>0.1799296337046812</v>
+        <v>0.149534321284122</v>
       </c>
       <c r="F25">
-        <v>0.479576998159267</v>
+        <v>0.633542397703458</v>
       </c>
       <c r="G25">
-        <v>0.359586794441185</v>
+        <v>0.4709628330583939</v>
       </c>
       <c r="H25">
-        <v>0.2630971935283384</v>
+        <v>0.6093713516338113</v>
       </c>
       <c r="I25">
-        <v>0.4450630581371655</v>
+        <v>0.6632657220701645</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.679585033889907</v>
+        <v>1.246218474773343</v>
       </c>
       <c r="L25">
-        <v>0.2193487200292736</v>
+        <v>0.1741187412480087</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9925219939803753</v>
+        <v>1.067463646127976</v>
       </c>
       <c r="O25">
-        <v>1.263801286113164</v>
+        <v>2.1189376672923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2415770933482833</v>
+        <v>0.2431549176109939</v>
       </c>
       <c r="D2">
-        <v>0.02587126749661905</v>
+        <v>0.0552376806598005</v>
       </c>
       <c r="E2">
-        <v>0.1437606120375037</v>
+        <v>0.1542951507858987</v>
       </c>
       <c r="F2">
-        <v>0.6290542452549559</v>
+        <v>0.4293090123494139</v>
       </c>
       <c r="G2">
-        <v>0.4688686173606129</v>
+        <v>0.3224181313449748</v>
       </c>
       <c r="H2">
-        <v>0.6138120906210389</v>
+        <v>0.2538327456288272</v>
       </c>
       <c r="I2">
-        <v>0.6608872145715878</v>
+        <v>0.4031200120735079</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.062424887895702</v>
+        <v>3.093192578894502</v>
       </c>
       <c r="L2">
-        <v>0.1671444806557574</v>
+        <v>0.1876797473172829</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056361425878436</v>
+        <v>0.949019725362092</v>
       </c>
       <c r="O2">
-        <v>2.123412239915922</v>
+        <v>1.165093335738163</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2355361060694605</v>
+        <v>0.2167699788038107</v>
       </c>
       <c r="D3">
-        <v>0.02380182233109451</v>
+        <v>0.0491095547305207</v>
       </c>
       <c r="E3">
-        <v>0.1399977085992141</v>
+        <v>0.137267916227902</v>
       </c>
       <c r="F3">
-        <v>0.6268990016914273</v>
+        <v>0.3972417241299411</v>
       </c>
       <c r="G3">
-        <v>0.4682065611508719</v>
+        <v>0.2990875728186637</v>
       </c>
       <c r="H3">
-        <v>0.6174449417600698</v>
+        <v>0.2486924088361775</v>
       </c>
       <c r="I3">
-        <v>0.6601296682002413</v>
+        <v>0.3765287163102826</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9374696694845284</v>
+        <v>2.695603565394975</v>
       </c>
       <c r="L3">
-        <v>0.1626114239204028</v>
+        <v>0.1667063476146353</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.049576209229173</v>
+        <v>0.9212254135320279</v>
       </c>
       <c r="O3">
-        <v>2.129334901191299</v>
+        <v>1.104502152578078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.231932996382767</v>
+        <v>0.2007537799891992</v>
       </c>
       <c r="D4">
-        <v>0.02252125527817128</v>
+        <v>0.04533493867599958</v>
       </c>
       <c r="E4">
-        <v>0.1377613719837107</v>
+        <v>0.1269619783547498</v>
       </c>
       <c r="F4">
-        <v>0.626012177325272</v>
+        <v>0.3784428174097698</v>
       </c>
       <c r="G4">
-        <v>0.4681723109783817</v>
+        <v>0.2855873148521368</v>
       </c>
       <c r="H4">
-        <v>0.6199830171014824</v>
+        <v>0.2460563104025368</v>
       </c>
       <c r="I4">
-        <v>0.6600854742578903</v>
+        <v>0.3610215401322918</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8605628739133522</v>
+        <v>2.451244188021548</v>
       </c>
       <c r="L4">
-        <v>0.1599234841592363</v>
+        <v>0.1540386787568409</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.045776958195177</v>
+        <v>0.9049392353933285</v>
       </c>
       <c r="O4">
-        <v>2.134394430886545</v>
+        <v>1.070126376288528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2304914901315129</v>
+        <v>0.194269849569622</v>
       </c>
       <c r="D5">
-        <v>0.02199695043540117</v>
+        <v>0.0437935285173765</v>
       </c>
       <c r="E5">
-        <v>0.1368687225242802</v>
+        <v>0.1227966915237211</v>
       </c>
       <c r="F5">
-        <v>0.6257604898610651</v>
+        <v>0.3709926236530308</v>
       </c>
       <c r="G5">
-        <v>0.4682518077922708</v>
+        <v>0.2802803206813351</v>
       </c>
       <c r="H5">
-        <v>0.6210946380124938</v>
+        <v>0.2451070442281988</v>
       </c>
       <c r="I5">
-        <v>0.6601732802718772</v>
+        <v>0.3548965962543917</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.829178909986382</v>
+        <v>2.351587394984421</v>
       </c>
       <c r="L5">
-        <v>0.1588521325239896</v>
+        <v>0.1489250369072224</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.044321434083969</v>
+        <v>0.8984913116306927</v>
       </c>
       <c r="O5">
-        <v>2.13681375185385</v>
+        <v>1.056789350271927</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2302537505712507</v>
+        <v>0.1931956829552348</v>
       </c>
       <c r="D6">
-        <v>0.02190974214516217</v>
+        <v>0.04353737753810094</v>
       </c>
       <c r="E6">
-        <v>0.1367216279900489</v>
+        <v>0.1221070466118306</v>
       </c>
       <c r="F6">
-        <v>0.6257253211887388</v>
+        <v>0.3697678581914019</v>
       </c>
       <c r="G6">
-        <v>0.4682706480967695</v>
+        <v>0.2794104768527319</v>
       </c>
       <c r="H6">
-        <v>0.6212838930475755</v>
+        <v>0.244956801889515</v>
       </c>
       <c r="I6">
-        <v>0.6601942503912923</v>
+        <v>0.3538909568017772</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8239650505950067</v>
+        <v>2.335034212817618</v>
       </c>
       <c r="L6">
-        <v>0.1586756859546981</v>
+        <v>0.1480787305490452</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.044085357469228</v>
+        <v>0.8974318403381858</v>
       </c>
       <c r="O6">
-        <v>2.137237062852023</v>
+        <v>1.054614173094905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.231913447099231</v>
+        <v>0.200666166680719</v>
       </c>
       <c r="D7">
-        <v>0.02251419425312662</v>
+        <v>0.04531416401901822</v>
       </c>
       <c r="E7">
-        <v>0.1377492577264263</v>
+        <v>0.1269056680984058</v>
       </c>
       <c r="F7">
-        <v>0.6260083388890791</v>
+        <v>0.3783415064276241</v>
       </c>
       <c r="G7">
-        <v>0.4681730049113142</v>
+        <v>0.2855149721340382</v>
       </c>
       <c r="H7">
-        <v>0.6199976956676352</v>
+        <v>0.2460430097782336</v>
       </c>
       <c r="I7">
-        <v>0.6600862300437171</v>
+        <v>0.360938165304816</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.860139793050962</v>
+        <v>2.449900522425452</v>
       </c>
       <c r="L7">
-        <v>0.159908938308412</v>
+        <v>0.153969523393485</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.045756952552992</v>
+        <v>0.9048515211234189</v>
       </c>
       <c r="O7">
-        <v>2.134425611506302</v>
+        <v>1.06994384112356</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2394722106394056</v>
+        <v>0.2340169588045029</v>
       </c>
       <c r="D8">
-        <v>0.02515979953057723</v>
+        <v>0.05312703514627515</v>
       </c>
       <c r="E8">
-        <v>0.1424478072267092</v>
+        <v>0.1483914320328523</v>
       </c>
       <c r="F8">
-        <v>0.62822048123288</v>
+        <v>0.4180591060407863</v>
       </c>
       <c r="G8">
-        <v>0.4685629855412898</v>
+        <v>0.3141945950209006</v>
       </c>
       <c r="H8">
-        <v>0.6150008858313214</v>
+        <v>0.2519488279880306</v>
       </c>
       <c r="I8">
-        <v>0.6605386233109911</v>
+        <v>0.3937738446137189</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.019379870365441</v>
+        <v>2.956141650940339</v>
       </c>
       <c r="L8">
-        <v>0.1655616993867142</v>
+        <v>0.1804018622660877</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.053945991985586</v>
+        <v>0.9392699452350399</v>
       </c>
       <c r="O8">
-        <v>2.125158845845561</v>
+        <v>1.143590241234563</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2551325357524945</v>
+        <v>0.3010511113480732</v>
       </c>
       <c r="D9">
-        <v>0.03026798509608852</v>
+        <v>0.06836508735371893</v>
       </c>
       <c r="E9">
-        <v>0.1522483714222602</v>
+        <v>0.1918490121604179</v>
       </c>
       <c r="F9">
-        <v>0.6360259750588071</v>
+        <v>0.503650451646493</v>
       </c>
       <c r="G9">
-        <v>0.47228911440925</v>
+        <v>0.3775949614094003</v>
       </c>
       <c r="H9">
-        <v>0.6076416555410447</v>
+        <v>0.2679333086755236</v>
       </c>
       <c r="I9">
-        <v>0.6647683627657486</v>
+        <v>0.465234969655377</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.330100497428703</v>
+        <v>3.947939492386126</v>
       </c>
       <c r="L9">
-        <v>0.177403287428362</v>
+        <v>0.2341090791150151</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.072898433004099</v>
+        <v>1.013301462669375</v>
       </c>
       <c r="O9">
-        <v>2.118293558126595</v>
+        <v>1.312329215429969</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2671447448893502</v>
+        <v>0.3515533074489952</v>
       </c>
       <c r="D10">
-        <v>0.03397110810480086</v>
+        <v>0.07952822758131362</v>
       </c>
       <c r="E10">
-        <v>0.1598057945356572</v>
+        <v>0.2247975944813092</v>
       </c>
       <c r="F10">
-        <v>0.6438819065664418</v>
+        <v>0.5721730933146603</v>
       </c>
       <c r="G10">
-        <v>0.4768438791421801</v>
+        <v>0.4294452927314438</v>
       </c>
       <c r="H10">
-        <v>0.6037220689096614</v>
+        <v>0.2827680537538697</v>
       </c>
       <c r="I10">
-        <v>0.6699188443031261</v>
+        <v>0.5228794418761709</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.55734304083262</v>
+        <v>4.677536372135478</v>
       </c>
       <c r="L10">
-        <v>0.1865653653608348</v>
+        <v>0.2750172394026293</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.088566395020933</v>
+        <v>1.072203117242623</v>
       </c>
       <c r="O10">
-        <v>2.120168215883922</v>
+        <v>1.453898647935603</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.27271863043552</v>
+        <v>0.3748609493929678</v>
       </c>
       <c r="D11">
-        <v>0.03564469520084401</v>
+        <v>0.08460405208950306</v>
       </c>
       <c r="E11">
-        <v>0.1633212692099946</v>
+        <v>0.2400589707680396</v>
       </c>
       <c r="F11">
-        <v>0.6479180583428032</v>
+        <v>0.6047925329682755</v>
       </c>
       <c r="G11">
-        <v>0.4793131463221698</v>
+        <v>0.4543917143615488</v>
       </c>
       <c r="H11">
-        <v>0.6022619391563637</v>
+        <v>0.2902841204279696</v>
       </c>
       <c r="I11">
-        <v>0.6727067252050105</v>
+        <v>0.550416647794215</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.660475090163061</v>
+        <v>5.010015462515923</v>
       </c>
       <c r="L11">
-        <v>0.1908340136603925</v>
+        <v>0.2940152606108626</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.096068707174624</v>
+        <v>1.100103905272135</v>
       </c>
       <c r="O11">
-        <v>2.122529069941692</v>
+        <v>1.52277856479904</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2748449604692098</v>
+        <v>0.3837403138989259</v>
       </c>
       <c r="D12">
-        <v>0.03627683252943115</v>
+        <v>0.08652617023615505</v>
       </c>
       <c r="E12">
-        <v>0.1646636119605986</v>
+        <v>0.245881768903196</v>
       </c>
       <c r="F12">
-        <v>0.649513041473007</v>
+        <v>0.6173726201153187</v>
       </c>
       <c r="G12">
-        <v>0.4803055070994304</v>
+        <v>0.4640527947227611</v>
       </c>
       <c r="H12">
-        <v>0.6017554592553722</v>
+        <v>0.2932492215782219</v>
       </c>
       <c r="I12">
-        <v>0.6738264653914996</v>
+        <v>0.5610507556914328</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.699491609146435</v>
+        <v>5.136031980246059</v>
       </c>
       <c r="L12">
-        <v>0.1924649248555426</v>
+        <v>0.3012716817067798</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.098963166003983</v>
+        <v>1.110839366955645</v>
       </c>
       <c r="O12">
-        <v>2.123640318703735</v>
+        <v>1.549564027336118</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2743863244575095</v>
+        <v>0.3818255274105127</v>
       </c>
       <c r="D13">
-        <v>0.0361407627690653</v>
+        <v>0.0861122012326021</v>
       </c>
       <c r="E13">
-        <v>0.1643740210845763</v>
+        <v>0.2446257105521639</v>
       </c>
       <c r="F13">
-        <v>0.6491665708888732</v>
+        <v>0.6146528156548925</v>
       </c>
       <c r="G13">
-        <v>0.4800892331309257</v>
+        <v>0.4619622572199944</v>
       </c>
       <c r="H13">
-        <v>0.6018624732659248</v>
+        <v>0.292605202402541</v>
       </c>
       <c r="I13">
-        <v>0.6735824606996417</v>
+        <v>0.5587510433434275</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.691090406000001</v>
+        <v>5.108886493484704</v>
       </c>
       <c r="L13">
-        <v>0.1921130359300065</v>
+        <v>0.2997060049799956</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.098337419726477</v>
+        <v>1.108519547941597</v>
       </c>
       <c r="O13">
-        <v>2.123391323263689</v>
+        <v>1.543763105552273</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2728932525228345</v>
+        <v>0.3755903611726126</v>
       </c>
       <c r="D14">
-        <v>0.03569673406042284</v>
+        <v>0.08476218353192166</v>
       </c>
       <c r="E14">
-        <v>0.1634314821778915</v>
+        <v>0.2405371148223736</v>
       </c>
       <c r="F14">
-        <v>0.6480479437465334</v>
+        <v>0.6058228218638035</v>
       </c>
       <c r="G14">
-        <v>0.4793936390125708</v>
+        <v>0.4551821271967356</v>
       </c>
       <c r="H14">
-        <v>0.6022193400011986</v>
+        <v>0.2905256265853495</v>
       </c>
       <c r="I14">
-        <v>0.6727975633383636</v>
+        <v>0.5512872828384303</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.663685766020365</v>
+        <v>5.020380452121003</v>
       </c>
       <c r="L14">
-        <v>0.1909678999121809</v>
+        <v>0.2946109642998209</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.096305766233726</v>
+        <v>1.100983644813596</v>
       </c>
       <c r="O14">
-        <v>2.122616136937182</v>
+        <v>1.524967802917701</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2719807335053019</v>
+        <v>0.3717782405540504</v>
       </c>
       <c r="D15">
-        <v>0.03542454246683491</v>
+        <v>0.08393527133121381</v>
       </c>
       <c r="E15">
-        <v>0.1628555952349018</v>
+        <v>0.2380385518216386</v>
       </c>
       <c r="F15">
-        <v>0.6473714253694638</v>
+        <v>0.6004444666637596</v>
       </c>
       <c r="G15">
-        <v>0.4789750352029642</v>
+        <v>0.4510576078311175</v>
       </c>
       <c r="H15">
-        <v>0.6024439791426346</v>
+        <v>0.2892675777833915</v>
       </c>
       <c r="I15">
-        <v>0.6723251312457776</v>
+        <v>0.5467429237039667</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.646894691932175</v>
+        <v>4.966183720923766</v>
       </c>
       <c r="L15">
-        <v>0.190268354301196</v>
+        <v>0.2914984131102045</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.095068274490799</v>
+        <v>1.096390169069593</v>
       </c>
       <c r="O15">
-        <v>2.122169616010837</v>
+        <v>1.513548364048347</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2667826708391772</v>
+        <v>0.3500372582580269</v>
       </c>
       <c r="D16">
-        <v>0.03386151130834492</v>
+        <v>0.07919649272373164</v>
       </c>
       <c r="E16">
-        <v>0.1595776069671402</v>
+        <v>0.2238060886215365</v>
       </c>
       <c r="F16">
-        <v>0.643627447126029</v>
+        <v>0.5700721205789776</v>
       </c>
       <c r="G16">
-        <v>0.4766905159804367</v>
+        <v>0.4278439302624832</v>
       </c>
       <c r="H16">
-        <v>0.6038239900664735</v>
+        <v>0.2822930256920699</v>
       </c>
       <c r="I16">
-        <v>0.6697456069135086</v>
+        <v>0.5211077276856315</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.550598033180052</v>
+        <v>4.655822316139336</v>
       </c>
       <c r="L16">
-        <v>0.1862884248994305</v>
+        <v>0.2737840316055014</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.08808360949223</v>
+        <v>1.070402915108616</v>
       </c>
       <c r="O16">
-        <v>2.120044307755535</v>
+        <v>1.449492190075546</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2636217797604559</v>
+        <v>0.336789020558399</v>
       </c>
       <c r="D17">
-        <v>0.03289980492747446</v>
+        <v>0.07628904648746726</v>
       </c>
       <c r="E17">
-        <v>0.1575865016945386</v>
+        <v>0.2151478682513215</v>
       </c>
       <c r="F17">
-        <v>0.6414491397896853</v>
+        <v>0.5518241014977647</v>
       </c>
       <c r="G17">
-        <v>0.4753909153034783</v>
+        <v>0.4139643528927053</v>
       </c>
       <c r="H17">
-        <v>0.6047532909669115</v>
+        <v>0.2782168814245836</v>
       </c>
       <c r="I17">
-        <v>0.6682771408512096</v>
+        <v>0.5057300123121422</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.491459395584741</v>
+        <v>4.465595382392792</v>
       </c>
       <c r="L17">
-        <v>0.1838726603692322</v>
+        <v>0.2630207934827666</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.083894464364704</v>
+        <v>1.054751465026442</v>
       </c>
       <c r="O17">
-        <v>2.119127027463122</v>
+        <v>1.411383134434203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2618140300439507</v>
+        <v>0.3292000817966709</v>
       </c>
       <c r="D18">
-        <v>0.03234562522722939</v>
+        <v>0.07461651715961892</v>
       </c>
       <c r="E18">
-        <v>0.1564485740966646</v>
+        <v>0.2101932944960154</v>
       </c>
       <c r="F18">
-        <v>0.6402397582156567</v>
+        <v>0.5414633845869261</v>
       </c>
       <c r="G18">
-        <v>0.4746808030938183</v>
+        <v>0.4061079395362412</v>
       </c>
       <c r="H18">
-        <v>0.6053181937419794</v>
+        <v>0.2759441035601355</v>
       </c>
       <c r="I18">
-        <v>0.6674743910402867</v>
+        <v>0.4970077741343388</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.457421817618808</v>
+        <v>4.35623468544776</v>
       </c>
       <c r="L18">
-        <v>0.1824926632321962</v>
+        <v>0.2568662411981535</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.081520288267356</v>
+        <v>1.045852578842258</v>
       </c>
       <c r="O18">
-        <v>2.118741355181982</v>
+        <v>1.389881729334064</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2612037317054501</v>
+        <v>0.3266357844466654</v>
       </c>
       <c r="D19">
-        <v>0.0321578133734377</v>
+        <v>0.07405017544606096</v>
       </c>
       <c r="E19">
-        <v>0.1560645471111926</v>
+        <v>0.2085199951296204</v>
       </c>
       <c r="F19">
-        <v>0.6398377550692942</v>
+        <v>0.5379780450613154</v>
       </c>
       <c r="G19">
-        <v>0.4744467866592714</v>
+        <v>0.4034691064052822</v>
       </c>
       <c r="H19">
-        <v>0.6055146800573254</v>
+        <v>0.2751866456661674</v>
       </c>
       <c r="I19">
-        <v>0.6672097838197217</v>
+        <v>0.494075123694806</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.445893476423976</v>
+        <v>4.319215221538457</v>
       </c>
       <c r="L19">
-        <v>0.1820270500006558</v>
+        <v>0.2547884415930497</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.080722510089018</v>
+        <v>1.04285700768564</v>
       </c>
       <c r="O19">
-        <v>2.11863513675948</v>
+        <v>1.38267179471859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.263957195717694</v>
+        <v>0.3381960627781382</v>
       </c>
       <c r="D20">
-        <v>0.03300228723349363</v>
+        <v>0.07659857181121055</v>
       </c>
       <c r="E20">
-        <v>0.1577977026909991</v>
+        <v>0.2160668902755916</v>
       </c>
       <c r="F20">
-        <v>0.6416765192493159</v>
+        <v>0.5537525182735479</v>
       </c>
       <c r="G20">
-        <v>0.4755253896716027</v>
+        <v>0.4154286060916235</v>
       </c>
       <c r="H20">
-        <v>0.6046512196479625</v>
+        <v>0.2786433119081408</v>
       </c>
       <c r="I20">
-        <v>0.6684291274742407</v>
+        <v>0.5073541839544973</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.497757162083758</v>
+        <v>4.48583968826</v>
       </c>
       <c r="L20">
-        <v>0.1841288409623445</v>
+        <v>0.2641627694421231</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.08433675462399</v>
+        <v>1.056406808459968</v>
       </c>
       <c r="O20">
-        <v>2.119209982193269</v>
+        <v>1.415396247711811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2733313809745255</v>
+        <v>0.3774202913891145</v>
       </c>
       <c r="D21">
-        <v>0.0358272001282316</v>
+        <v>0.08515871316183876</v>
       </c>
       <c r="E21">
-        <v>0.1637080275728238</v>
+        <v>0.2417368133311228</v>
       </c>
       <c r="F21">
-        <v>0.6483747040578223</v>
+        <v>0.6084100598717015</v>
       </c>
       <c r="G21">
-        <v>0.4795963953018116</v>
+        <v>0.4571676395252524</v>
       </c>
       <c r="H21">
-        <v>0.6021132591909151</v>
+        <v>0.2911331497705589</v>
       </c>
       <c r="I21">
-        <v>0.6730263685337761</v>
+        <v>0.5534738254485276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.67173620735241</v>
+        <v>5.046373476825636</v>
       </c>
       <c r="L21">
-        <v>0.1913038616925888</v>
+        <v>0.2961057577588662</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.096901063486399</v>
+        <v>1.103192416259503</v>
       </c>
       <c r="O21">
-        <v>2.122837928929897</v>
+        <v>1.530468901470499</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2795489449918875</v>
+        <v>0.4033687701136159</v>
       </c>
       <c r="D22">
-        <v>0.03766402161954829</v>
+        <v>0.09075352137740111</v>
       </c>
       <c r="E22">
-        <v>0.1676354959853228</v>
+        <v>0.2587702641875822</v>
       </c>
       <c r="F22">
-        <v>0.6531404706999524</v>
+        <v>0.6454698267048116</v>
       </c>
       <c r="G22">
-        <v>0.482591117670907</v>
+        <v>0.4857059810844362</v>
       </c>
       <c r="H22">
-        <v>0.6007252430520964</v>
+        <v>0.2999935799907689</v>
       </c>
       <c r="I22">
-        <v>0.6764041725751042</v>
+        <v>0.5848274414350811</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.785222670350606</v>
+        <v>5.413394535506711</v>
       </c>
       <c r="L22">
-        <v>0.1960774640440519</v>
+        <v>0.3173486743485512</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.105424195603263</v>
+        <v>1.13476626457765</v>
       </c>
       <c r="O22">
-        <v>2.126475446602058</v>
+        <v>1.609797883450824</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2762222284175664</v>
+        <v>0.3894890932827479</v>
       </c>
       <c r="D23">
-        <v>0.03668454898418361</v>
+        <v>0.08776732024936251</v>
       </c>
       <c r="E23">
-        <v>0.1655334243631472</v>
+        <v>0.2496541689937573</v>
       </c>
       <c r="F23">
-        <v>0.6505613525848446</v>
+        <v>0.6255611033083852</v>
       </c>
       <c r="G23">
-        <v>0.4809621520203962</v>
+        <v>0.470352700195221</v>
       </c>
       <c r="H23">
-        <v>0.601441283640753</v>
+        <v>0.2951977971367086</v>
       </c>
       <c r="I23">
-        <v>0.6745672058365102</v>
+        <v>0.5679765084448078</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.724673692658314</v>
+        <v>5.217435613000191</v>
       </c>
       <c r="L23">
-        <v>0.1935219962755923</v>
+        <v>0.3059751806612354</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.100846859437297</v>
+        <v>1.117819682549566</v>
       </c>
       <c r="O23">
-        <v>2.124418028211352</v>
+        <v>1.567061115477657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2638055245981832</v>
+        <v>0.3375598532605864</v>
       </c>
       <c r="D24">
-        <v>0.03295595897293424</v>
+        <v>0.07645863855251633</v>
       </c>
       <c r="E24">
-        <v>0.1577021975822248</v>
+        <v>0.2156513286329087</v>
       </c>
       <c r="F24">
-        <v>0.6415735871959001</v>
+        <v>0.5528802766201295</v>
       </c>
       <c r="G24">
-        <v>0.475464478428762</v>
+        <v>0.4147662350812453</v>
       </c>
       <c r="H24">
-        <v>0.6046972706638485</v>
+        <v>0.2784503032611241</v>
       </c>
       <c r="I24">
-        <v>0.6683602850847663</v>
+        <v>0.5066195277932692</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.49491005997794</v>
+        <v>4.476687229548759</v>
       </c>
       <c r="L24">
-        <v>0.1840129941233641</v>
+        <v>0.2636463786277972</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.084136688575057</v>
+        <v>1.055658119090282</v>
       </c>
       <c r="O24">
-        <v>2.119172037049964</v>
+        <v>1.413580652716007</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2508067500459674</v>
+        <v>0.282716213477471</v>
       </c>
       <c r="D25">
-        <v>0.0288947558685777</v>
+        <v>0.0642498555150155</v>
       </c>
       <c r="E25">
-        <v>0.149534321284122</v>
+        <v>0.1799296337046883</v>
       </c>
       <c r="F25">
-        <v>0.633542397703458</v>
+        <v>0.4795769981592528</v>
       </c>
       <c r="G25">
-        <v>0.4709628330583939</v>
+        <v>0.3595867944411992</v>
       </c>
       <c r="H25">
-        <v>0.6093713516338113</v>
+        <v>0.2630971935283242</v>
       </c>
       <c r="I25">
-        <v>0.6632657220701645</v>
+        <v>0.4450630581371655</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.246218474773343</v>
+        <v>3.67958503388985</v>
       </c>
       <c r="L25">
-        <v>0.1741187412480087</v>
+        <v>0.2193487200292168</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.067463646127976</v>
+        <v>0.9925219939804037</v>
       </c>
       <c r="O25">
-        <v>2.1189376672923</v>
+        <v>1.263801286113107</v>
       </c>
     </row>
   </sheetData>
